--- a/smartprix testcase.xlsx
+++ b/smartprix testcase.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JENIFER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08963A67-3C1E-46BD-97C0-A84913703C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB6ACF-0E8A-4FEA-AD12-29E53D439A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B127321-3810-46BB-AC93-590722B28D75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2B127321-3810-46BB-AC93-590722B28D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -742,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -771,6 +771,93 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -778,23 +865,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="25">
     <dxf>
       <font>
         <b/>
@@ -818,6 +922,611 @@
           <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -837,222 +1546,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1067,33 +1560,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{188AAB24-E79A-49B3-90CD-CA91C95C9A23}" name="Table1" displayName="Table1" ref="C6:G17" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{188AAB24-E79A-49B3-90CD-CA91C95C9A23}" name="Table1" displayName="Table1" ref="C6:G17" headerRowDxfId="15" totalsRowDxfId="14" headerRowBorderDxfId="21" tableBorderDxfId="22">
   <autoFilter ref="C6:G17" xr:uid="{188AAB24-E79A-49B3-90CD-CA91C95C9A23}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EB10B6E6-6954-42B0-A763-77B9F24D1465}" name="Version"/>
-    <tableColumn id="2" xr3:uid="{FD00D273-BACB-4033-8D6B-F62A19F4FA5F}" name="Date"/>
-    <tableColumn id="3" xr3:uid="{0C4801D1-67D6-49FC-8589-79CD04186096}" name="Prepared By " dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{B0C55B0B-619A-4F6E-98D7-AC0ABA475060}" name="Comments"/>
-    <tableColumn id="5" xr3:uid="{B37E09E2-B7F7-4690-B4CD-BC713ADC261E}" name="Testing type"/>
+    <tableColumn id="1" xr3:uid="{EB10B6E6-6954-42B0-A763-77B9F24D1465}" name="Version" totalsRowLabel="Total" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{FD00D273-BACB-4033-8D6B-F62A19F4FA5F}" name="Date" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0C4801D1-67D6-49FC-8589-79CD04186096}" name="Prepared By " dataDxfId="18" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{B0C55B0B-619A-4F6E-98D7-AC0ABA475060}" name="Comments" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{B37E09E2-B7F7-4690-B4CD-BC713ADC261E}" name="Testing type" totalsRowFunction="count" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B238554A-1955-470F-AEB4-82FA869965F8}" name="Table2" displayName="Table2" ref="A1:J31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B238554A-1955-470F-AEB4-82FA869965F8}" name="Table2" displayName="Table2" ref="A1:J31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="24" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:J31" xr:uid="{B238554A-1955-470F-AEB4-82FA869965F8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BD1C9C4C-A0CB-4C9A-BEA2-0E520A191E7F}" name="Sl.No" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{76B225B4-FA3F-4E59-84CA-AD0FC925357F}" name="Test Case ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{20FED797-D38A-4283-995E-43A10DB33395}" name="Feature" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{578F8FCC-6326-47F9-963D-96232E16E923}" name="Objective" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{8029F4A9-D207-4E17-AB25-296D758ECEE4}" name="Pre Condition" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{B3B63807-DA3C-4201-89A3-26FB0E124C21}" name="Test Data" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{35689563-5075-46E6-B1EF-14212240642D}" name="Expected Result" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{1F7F43A1-B041-452B-9E7F-9D9FD2E2D72B}" name="Actual Result" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{437B815B-F2C6-475E-ADA8-F3D884A3A1C3}" name="Status" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{091AAB53-757D-4BEA-949B-7E01450E0E3E}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BD1C9C4C-A0CB-4C9A-BEA2-0E520A191E7F}" name="Sl.No" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{76B225B4-FA3F-4E59-84CA-AD0FC925357F}" name="Test Case ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{20FED797-D38A-4283-995E-43A10DB33395}" name="Feature" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{578F8FCC-6326-47F9-963D-96232E16E923}" name="Objective" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{8029F4A9-D207-4E17-AB25-296D758ECEE4}" name="Pre Condition" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B3B63807-DA3C-4201-89A3-26FB0E124C21}" name="Test Data" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{35689563-5075-46E6-B1EF-14212240642D}" name="Expected Result" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{1F7F43A1-B041-452B-9E7F-9D9FD2E2D72B}" name="Actual Result" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{437B815B-F2C6-475E-ADA8-F3D884A3A1C3}" name="Status" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{091AAB53-757D-4BEA-949B-7E01450E0E3E}" name="Comments" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1396,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA79E05-3285-40C9-88E5-6A0361E3A7F9}">
-  <dimension ref="C6:G20"/>
+  <dimension ref="C6:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1412,24 +1905,24 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1446,16 +1939,16 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8">
+      <c r="C8" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -1463,16 +1956,16 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9">
+      <c r="C9" s="7">
         <v>1.2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>199</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -1480,149 +1973,140 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10">
+      <c r="C10" s="7">
         <v>1.3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>199</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11">
+      <c r="C11" s="7">
         <v>1.4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12">
+      <c r="C12" s="7">
         <v>1.5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>204</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13">
+      <c r="C13" s="7">
         <v>1.6</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>206</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14">
+      <c r="C14" s="7">
         <v>1.7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15">
+      <c r="C15" s="7">
         <v>1.8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16">
+      <c r="C16" s="7">
         <v>1.9</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17">
+      <c r="C17" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1637,939 +2121,964 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FD8726-149E-4A0C-B29E-5D9EA276DA49}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="18.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="55.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="19" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="19" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="19" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="19" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="19" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="21">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="23" t="s">
         <v>194</v>
       </c>
     </row>

--- a/smartprix testcase.xlsx
+++ b/smartprix testcase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JENIFER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB6ACF-0E8A-4FEA-AD12-29E53D439A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3AAA19-538F-44DA-A742-EA37D4581A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2B127321-3810-46BB-AC93-590722B28D75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2B127321-3810-46BB-AC93-590722B28D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="458">
   <si>
     <t>Sl.No</t>
   </si>
@@ -99,9 +100,6 @@
     <t>login</t>
   </si>
   <si>
-    <t>To Login to a smartprix website</t>
-  </si>
-  <si>
     <t>user should have smartprix account</t>
   </si>
   <si>
@@ -111,13 +109,7 @@
     <t>the account should created and its redirect to the home page</t>
   </si>
   <si>
-    <t>the website should log in and it redirected to the home page</t>
-  </si>
-  <si>
     <t>it can also be more secure</t>
-  </si>
-  <si>
-    <t>To display the content in dashboard</t>
   </si>
   <si>
     <t>user should logged in the smartprix website</t>
@@ -146,12 +138,6 @@
     <t>Search bar</t>
   </si>
   <si>
-    <t>To create a smartprix account</t>
-  </si>
-  <si>
-    <t>To search anything in the search bar</t>
-  </si>
-  <si>
     <t>user should enter the product name</t>
   </si>
   <si>
@@ -176,25 +162,13 @@
     <t>searchin</t>
   </si>
   <si>
-    <t>To search anything in the dropdown box</t>
-  </si>
-  <si>
-    <t>user should click the product</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
     <t>it should show the details about the mobile phones</t>
   </si>
   <si>
-    <t>it scand be more colorfull</t>
-  </si>
-  <si>
     <t>TC_Menu01</t>
-  </si>
-  <si>
-    <t>To click mobile in the menubar</t>
   </si>
   <si>
     <t>user should click the mobile in menubar</t>
@@ -216,9 +190,6 @@
     <t>tablets</t>
   </si>
   <si>
-    <t>To click Tablets in the menubar</t>
-  </si>
-  <si>
     <t>user should click the tablets in menubar</t>
   </si>
   <si>
@@ -244,24 +215,6 @@
     <t>TC_menu08</t>
   </si>
   <si>
-    <t>To click Laptops in the menubar</t>
-  </si>
-  <si>
-    <t>To click TV's in the menubar</t>
-  </si>
-  <si>
-    <t>To click Electronics in the menubar</t>
-  </si>
-  <si>
-    <t>To click Applianaces in the menubar</t>
-  </si>
-  <si>
-    <t>To click computers in the menubar</t>
-  </si>
-  <si>
-    <t>To click Accessories in the menubar</t>
-  </si>
-  <si>
     <t>user should click the Laptops in menubar</t>
   </si>
   <si>
@@ -300,10 +253,6 @@
 and price</t>
   </si>
   <si>
-    <t>it should show the details about the Accessoriess like brand,categories
-and price</t>
-  </si>
-  <si>
     <t>laptops</t>
   </si>
   <si>
@@ -328,9 +277,6 @@
     <t>Deals</t>
   </si>
   <si>
-    <t>To click Deals in the menubar</t>
-  </si>
-  <si>
     <t>its shows the deals ands offers</t>
   </si>
   <si>
@@ -340,9 +286,6 @@
     <t>news</t>
   </si>
   <si>
-    <t>To click news in menubar</t>
-  </si>
-  <si>
     <t>user should click the news</t>
   </si>
   <si>
@@ -364,34 +307,18 @@
     <t>user should have twitter account</t>
   </si>
   <si>
-    <t>TC_followup01</t>
-  </si>
-  <si>
     <t>followup</t>
   </si>
   <si>
-    <t>To follow smartprix on facebook</t>
-  </si>
-  <si>
     <t>user should have facbook access in their browser</t>
   </si>
   <si>
-    <t>facebook account:jenifer98@gamil.com
-password:jenifer0</t>
-  </si>
-  <si>
     <t>it should show the facebook page in a new tab</t>
   </si>
   <si>
     <t>its shows the smartprix facebook page</t>
   </si>
   <si>
-    <t>TC_followup02</t>
-  </si>
-  <si>
-    <t>To follow smartprix account on twitter</t>
-  </si>
-  <si>
     <t>it should show the twitter page in a new tab</t>
   </si>
   <si>
@@ -399,10 +326,6 @@
   </si>
   <si>
     <t>it could be more diffrenciate</t>
-  </si>
-  <si>
-    <t>Twitter account:jenifer98@gamil.com
-password:jenifer1</t>
   </si>
   <si>
     <t>email id: jenifer1998@gmail.com
@@ -419,18 +342,12 @@
     <t>it should show other option to login</t>
   </si>
   <si>
-    <t>TC_SIGNUP02</t>
-  </si>
-  <si>
     <t>TC_compare01</t>
   </si>
   <si>
     <t>compare</t>
   </si>
   <si>
-    <t xml:space="preserve">To click compare </t>
-  </si>
-  <si>
     <t>user should click the compare</t>
   </si>
   <si>
@@ -458,12 +375,6 @@
     <t>TC_Compare03</t>
   </si>
   <si>
-    <t>To add compare list</t>
-  </si>
-  <si>
-    <t>To add another product</t>
-  </si>
-  <si>
     <t>user should click on add product</t>
   </si>
   <si>
@@ -479,9 +390,6 @@
     <t>TC_Compare04</t>
   </si>
   <si>
-    <t>user shoulf click on add product</t>
-  </si>
-  <si>
     <t>its shows only the particular device in the search bar</t>
   </si>
   <si>
@@ -494,9 +402,6 @@
     <t>TC_Compare05</t>
   </si>
   <si>
-    <t>To compare the list of products</t>
-  </si>
-  <si>
     <t>user should click comapre on the dialogue box</t>
   </si>
   <si>
@@ -518,9 +423,6 @@
     <t>notification</t>
   </si>
   <si>
-    <t>To view the notification</t>
-  </si>
-  <si>
     <t>user should click the notification in the menu bar</t>
   </si>
   <si>
@@ -539,9 +441,6 @@
     <t>favorite</t>
   </si>
   <si>
-    <t>To click heart button to add favorite</t>
-  </si>
-  <si>
     <t>user should click the heart button</t>
   </si>
   <si>
@@ -557,9 +456,6 @@
     <t>Footer</t>
   </si>
   <si>
-    <t>To click about in the footer</t>
-  </si>
-  <si>
     <t>user should click the footer</t>
   </si>
   <si>
@@ -576,9 +472,6 @@
   </si>
   <si>
     <t>TC_Footer02</t>
-  </si>
-  <si>
-    <t>To click mobile in the footer</t>
   </si>
   <si>
     <t>user should click the mobile list in the footer</t>
@@ -600,9 +493,6 @@
     <t>footer</t>
   </si>
   <si>
-    <t>To click categories in the footer</t>
-  </si>
-  <si>
     <t>user should click the categories in the footer</t>
   </si>
   <si>
@@ -621,9 +511,6 @@
     <t>fight</t>
   </si>
   <si>
-    <t>To click fight in the next column</t>
-  </si>
-  <si>
     <t>user should click the fight in the next column</t>
   </si>
   <si>
@@ -681,9 +568,6 @@
     <t>05.12.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">To compare the list </t>
-  </si>
-  <si>
     <t>user should add product in the compare table</t>
   </si>
   <si>
@@ -694,6 +578,892 @@
   </si>
   <si>
     <t>its could be more effective</t>
+  </si>
+  <si>
+    <t>it can be more colorfull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This module is to create a smartprix 
+account using email </t>
+  </si>
+  <si>
+    <t>This method is to follow smartprix on 
+facebook using your own facebook account</t>
+  </si>
+  <si>
+    <t>This method is to follow smartprix account
+ on twitter using your own twitter account</t>
+  </si>
+  <si>
+    <t>This method used for search anything in the 
+search bar</t>
+  </si>
+  <si>
+    <t>This is to click mobile option  in the menubar</t>
+  </si>
+  <si>
+    <t>This is to click Laptops in the menubar
+ option in the menubar</t>
+  </si>
+  <si>
+    <t>This is to click TV's in the menubar to see
+ the brand and categories</t>
+  </si>
+  <si>
+    <t>This is to click Electronics in the menubar</t>
+  </si>
+  <si>
+    <t>This is to click Applianaces in the menubar</t>
+  </si>
+  <si>
+    <t>This is to click computers in the menubar</t>
+  </si>
+  <si>
+    <t>To is to click Accessories in the menubar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To compare the two phone and click compare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To add the particular products to compare list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is to compare the list of compare products </t>
+  </si>
+  <si>
+    <t>This is to comparing  the list of products</t>
+  </si>
+  <si>
+    <t>To view the notification click the notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This module is to create a smartprix account
+using created twitter </t>
+  </si>
+  <si>
+    <t>To click heart button to add favorite to create 
+favorite list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To read the about in the footer click about </t>
+  </si>
+  <si>
+    <t>There is special module for mobile in the footer 
+click specified mobile</t>
+  </si>
+  <si>
+    <t>To click categories of mobile in the footer</t>
+  </si>
+  <si>
+    <t>To click fight in the right column to compare 
+to particular type of products</t>
+  </si>
+  <si>
+    <t>redmi,realme</t>
+  </si>
+  <si>
+    <t>6 gb ram phone</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>redmi,realme,apple</t>
+  </si>
+  <si>
+    <t>realme</t>
+  </si>
+  <si>
+    <t>redmi</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>poco</t>
+  </si>
+  <si>
+    <t>oppo</t>
+  </si>
+  <si>
+    <t>headphones</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>To signin to a smartprix account</t>
+  </si>
+  <si>
+    <t>user should have email account</t>
+  </si>
+  <si>
+    <t>Email: c.jenifer1998@gmail.com
+password: jenifer98</t>
+  </si>
+  <si>
+    <t>It should signin and create a 
+smartprix account</t>
+  </si>
+  <si>
+    <t>Its created an account</t>
+  </si>
+  <si>
+    <t>TC_Login</t>
+  </si>
+  <si>
+    <t>To login  using a smartprix account</t>
+  </si>
+  <si>
+    <t>its should login into the website</t>
+  </si>
+  <si>
+    <t>its login to the website</t>
+  </si>
+  <si>
+    <t>TC_Compare</t>
+  </si>
+  <si>
+    <t>To compare the mobiles</t>
+  </si>
+  <si>
+    <t>user should have login to smartprix account</t>
+  </si>
+  <si>
+    <t>its should compare the mobiles</t>
+  </si>
+  <si>
+    <t>its compare and shows the result</t>
+  </si>
+  <si>
+    <t>TC_Fight</t>
+  </si>
+  <si>
+    <t>To fight the mobile</t>
+  </si>
+  <si>
+    <t>its should shows the fetures of two
+ mobiles</t>
+  </si>
+  <si>
+    <t>facebook account:jenifer98@gmail.com
+password:jenifer0</t>
+  </si>
+  <si>
+    <t>Twitter account:jenifer98@gmail.com
+password:jenifer1</t>
+  </si>
+  <si>
+    <t>TC_Signup01</t>
+  </si>
+  <si>
+    <t>TC_Followup01</t>
+  </si>
+  <si>
+    <t>TC_Followup02</t>
+  </si>
+  <si>
+    <t>TC_Signup03</t>
+  </si>
+  <si>
+    <t>this module is to create a smartprix account
+using created yahoo mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should have twitter account </t>
+  </si>
+  <si>
+    <t>TC_Signup02</t>
+  </si>
+  <si>
+    <t>user should have yahoo mail</t>
+  </si>
+  <si>
+    <t>email id:jenifer1998@yahoo.com
+password:jenifer98</t>
+  </si>
+  <si>
+    <t>this account should created and its redircted to the home page</t>
+  </si>
+  <si>
+    <t>TC_Followup03</t>
+  </si>
+  <si>
+    <t>This method is to follow smartprix account on pin it using your own pin it account</t>
+  </si>
+  <si>
+    <t>user should have pin it account</t>
+  </si>
+  <si>
+    <t>it should show the pin it page in a new tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its show the smartprix pin it page </t>
+  </si>
+  <si>
+    <t>TC_Followup04</t>
+  </si>
+  <si>
+    <t>user should have instagram account</t>
+  </si>
+  <si>
+    <t>it should show the instagram page in a new tab</t>
+  </si>
+  <si>
+    <t>its show the smartprix instagram page</t>
+  </si>
+  <si>
+    <t>TC_Followup05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This method is to follow smartprix account on instagarm using your own instagarm account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This method is to follow smartprix account on youtube using your own youtube channel</t>
+  </si>
+  <si>
+    <t>user should have youtube channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its should show the smartprix youtube channel </t>
+  </si>
+  <si>
+    <t>its ahow the channel in a new tab</t>
+  </si>
+  <si>
+    <t>This method is to login to the smartprix website using created account on smartprix</t>
+  </si>
+  <si>
+    <t>This dashboard display after the succesfull login and we have to click the content in dashboard</t>
+  </si>
+  <si>
+    <t>My profile</t>
+  </si>
+  <si>
+    <t>user should logged in the website</t>
+  </si>
+  <si>
+    <t>its should show the profile page of the user</t>
+  </si>
+  <si>
+    <t>its shows the profile of current user</t>
+  </si>
+  <si>
+    <t>TC_My profile01</t>
+  </si>
+  <si>
+    <t>TC_My profile02</t>
+  </si>
+  <si>
+    <t>this module is to see the activity of the current user</t>
+  </si>
+  <si>
+    <t>this module is to edit the profile of the logged in user</t>
+  </si>
+  <si>
+    <t>its should show the activity of the current user</t>
+  </si>
+  <si>
+    <t>its shows the activity of user</t>
+  </si>
+  <si>
+    <t>TC_My profile03</t>
+  </si>
+  <si>
+    <t>this module is to see the comments of the current user</t>
+  </si>
+  <si>
+    <t>it should show the commnets of the particulart user</t>
+  </si>
+  <si>
+    <t>its shows the commment of the user</t>
+  </si>
+  <si>
+    <t>TC_My profile04</t>
+  </si>
+  <si>
+    <t>This module is to see the replies to the user</t>
+  </si>
+  <si>
+    <t>it should show the replies of the user</t>
+  </si>
+  <si>
+    <t>its shows the replies of the user</t>
+  </si>
+  <si>
+    <t>TC_My profile05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This module is to see the reviews </t>
+  </si>
+  <si>
+    <t>its should show the reviews of the user products</t>
+  </si>
+  <si>
+    <t>its shows the reviews of the user product</t>
+  </si>
+  <si>
+    <t>TC_My profile06</t>
+  </si>
+  <si>
+    <t>This module is to see the favorite list of the user</t>
+  </si>
+  <si>
+    <t>its should show the favorite listof the user</t>
+  </si>
+  <si>
+    <t>its shows the favorite list</t>
+  </si>
+  <si>
+    <t>TC_Settings01</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>This module is to see the smartprix account settings</t>
+  </si>
+  <si>
+    <t>its should show the account settting of the current user</t>
+  </si>
+  <si>
+    <t>its shows the settings</t>
+  </si>
+  <si>
+    <t>TC_Settings02</t>
+  </si>
+  <si>
+    <t>this module is to change the profile picture of the user</t>
+  </si>
+  <si>
+    <t>user should have a picture in their local drive</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>its should show the button change the profile picture of the current user</t>
+  </si>
+  <si>
+    <t>its shows the changing option to change the
+ picture of the user</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Replies</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>favorite list</t>
+  </si>
+  <si>
+    <t>TC_Settings03</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>this module is to edit user details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should have logged in to the smartprix </t>
+  </si>
+  <si>
+    <t>its should manipulate the details of the user</t>
+  </si>
+  <si>
+    <t>its manipulates the details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsubscribe </t>
+  </si>
+  <si>
+    <t>this module is to unsubscribe the acoount create in the smartprix website</t>
+  </si>
+  <si>
+    <t>its should unsubscribe the account</t>
+  </si>
+  <si>
+    <t>its unsubscribe the account</t>
+  </si>
+  <si>
+    <t>TC_Settings04</t>
+  </si>
+  <si>
+    <t>TC_Settings05</t>
+  </si>
+  <si>
+    <t>price alert</t>
+  </si>
+  <si>
+    <t>this module shows the price alerts for the current user</t>
+  </si>
+  <si>
+    <t>user should already turn on the price alert option</t>
+  </si>
+  <si>
+    <t>its should shows the price alert for the particular product</t>
+  </si>
+  <si>
+    <t>its show the alert</t>
+  </si>
+  <si>
+    <t>TC_Settings06</t>
+  </si>
+  <si>
+    <t>this module shows the nofication for the user on the any product in the website</t>
+  </si>
+  <si>
+    <t>user should turn on the notification before</t>
+  </si>
+  <si>
+    <t>its shows the notifiction</t>
+  </si>
+  <si>
+    <t>TC_Settings07</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>This can be more differntiate</t>
+  </si>
+  <si>
+    <t>this module is to create a smartprix account using outlook mail</t>
+  </si>
+  <si>
+    <t>user should have outlook mail</t>
+  </si>
+  <si>
+    <t>TC_Signup04</t>
+  </si>
+  <si>
+    <t>this module is for search any product
+in the search bar</t>
+  </si>
+  <si>
+    <t>redmi 8</t>
+  </si>
+  <si>
+    <t>its should show the details abouut the specified 
+phone</t>
+  </si>
+  <si>
+    <t>TC_Search03</t>
+  </si>
+  <si>
+    <t>its should show the details about the product</t>
+  </si>
+  <si>
+    <t>LG washing machine</t>
+  </si>
+  <si>
+    <t>search in</t>
+  </si>
+  <si>
+    <t>This is to add another product in the already created compare list</t>
+  </si>
+  <si>
+    <t>This is also to add another product in the already created compare list for the maximum of four products</t>
+  </si>
+  <si>
+    <t>To click Deals in the menubar to see the daily deals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see the news in menubar to see the latest news  </t>
+  </si>
+  <si>
+    <t>TC_Search04</t>
+  </si>
+  <si>
+    <t>dslr 6500</t>
+  </si>
+  <si>
+    <t>This is to click tablet option  in the menubar</t>
+  </si>
+  <si>
+    <t>This method used to search a particular product name in the search in button it is used like filter</t>
+  </si>
+  <si>
+    <t>user should click the particular product</t>
+  </si>
+  <si>
+    <t>TC_Searchin01</t>
+  </si>
+  <si>
+    <t>TC_Searchin02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should show the details about the tablets </t>
+  </si>
+  <si>
+    <t>TC_Searchin03</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>it should show the details about the camera</t>
+  </si>
+  <si>
+    <t>find a phone</t>
+  </si>
+  <si>
+    <t>To find phone in a drag button</t>
+  </si>
+  <si>
+    <t>user should adjust the rate for the phone</t>
+  </si>
+  <si>
+    <t>it should show the details about the Accessoriess like brand,categories and price</t>
+  </si>
+  <si>
+    <t>it should show the phone under the mentioned rate</t>
+  </si>
+  <si>
+    <t>its shows the details of the phone under the rate</t>
+  </si>
+  <si>
+    <t>Instagram : Jeni_fernandas
+Password: jenifer98</t>
+  </si>
+  <si>
+    <t>Youtube : Jeni_fernandas
+Password: jenifer98</t>
+  </si>
+  <si>
+    <t>TC_Signup05</t>
+  </si>
+  <si>
+    <t>this module is to create a smartprix account using  gmail</t>
+  </si>
+  <si>
+    <t>email id : jenifer1998@gmail.com
+password : jenifer9</t>
+  </si>
+  <si>
+    <t>its shows the  error message as username or password  is incorrect</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Enter the correct user name and password</t>
+  </si>
+  <si>
+    <t>TC_Signup06</t>
+  </si>
+  <si>
+    <t>this module is to create a smartprix account 
+using already logged in email</t>
+  </si>
+  <si>
+    <t>user should have logged in email acount in their 
+system</t>
+  </si>
+  <si>
+    <t>it redirected to the home page</t>
+  </si>
+  <si>
+    <t>TC_Signup07</t>
+  </si>
+  <si>
+    <t>This module is to create a smartprix account</t>
+  </si>
+  <si>
+    <t>user should have logged in facebook account in 
+their system</t>
+  </si>
+  <si>
+    <t>facebook account:jenifer98@gmail.com
+password:jenifer1</t>
+  </si>
+  <si>
+    <t>TC_Login02</t>
+  </si>
+  <si>
+    <t>email id : jenifer1998@gmail.com
+password : jenifer99</t>
+  </si>
+  <si>
+    <t>the website should log in and it redirected to the home
+ page</t>
+  </si>
+  <si>
+    <t>its show the error message as user or password is 
+in correct</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>recover the password by clicking the recovery</t>
+  </si>
+  <si>
+    <t>TC_Find a phone</t>
+  </si>
+  <si>
+    <t>drag button</t>
+  </si>
+  <si>
+    <t>to find a phone below the particular 
+amount</t>
+  </si>
+  <si>
+    <t>its show the details of the phones
+ under that price</t>
+  </si>
+  <si>
+    <t>its shows the phones umder the price</t>
+  </si>
+  <si>
+    <t>TC_Signup</t>
+  </si>
+  <si>
+    <t>This method in the login option use to create the
+smartprix account</t>
+  </si>
+  <si>
+    <t>user should click the signup link</t>
+  </si>
+  <si>
+    <t>it should redirect to the signin page</t>
+  </si>
+  <si>
+    <t>its redirected to the signin page</t>
+  </si>
+  <si>
+    <t>TC_Logout</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>This module is to logout the account which is 
+signed in</t>
+  </si>
+  <si>
+    <t>its should logout from the account</t>
+  </si>
+  <si>
+    <t>its logged out</t>
+  </si>
+  <si>
+    <t>TC_Searchin04</t>
+  </si>
+  <si>
+    <t>user should click the camera</t>
+  </si>
+  <si>
+    <t>its shows the details of the iphone xr</t>
+  </si>
+  <si>
+    <t>its show the message as no result matched 
+your query</t>
+  </si>
+  <si>
+    <t>TC_Searchin05</t>
+  </si>
+  <si>
+    <t>user should click the book</t>
+  </si>
+  <si>
+    <t>its should show the details of the oppo mobile</t>
+  </si>
+  <si>
+    <t>search the revalent product</t>
+  </si>
+  <si>
+    <t>TC_Compare07</t>
+  </si>
+  <si>
+    <t>redmi,realme,dslr</t>
+  </si>
+  <si>
+    <t>its should compare the list</t>
+  </si>
+  <si>
+    <t>its didn't allow the user add the camera in the list</t>
+  </si>
+  <si>
+    <t>its compare only the same kind of products</t>
+  </si>
+  <si>
+    <t>TC_Favorite02</t>
+  </si>
+  <si>
+    <t>To click heart button for the next time to remove product from the favorite list</t>
+  </si>
+  <si>
+    <t>its should remove from the favorite list</t>
+  </si>
+  <si>
+    <t>its removed from the list</t>
+  </si>
+  <si>
+    <t>TC_Compare08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if user turn off the system while compareing </t>
+  </si>
+  <si>
+    <t>its should to there till next login</t>
+  </si>
+  <si>
+    <t>To signin using email already logged in</t>
+  </si>
+  <si>
+    <t>user shoulg have already logged in email</t>
+  </si>
+  <si>
+    <t>Email: c.jenifer1998@gmail.com
+password: jenifer97</t>
+  </si>
+  <si>
+    <t>its should redirect to the homepage</t>
+  </si>
+  <si>
+    <t>its redirected to the page</t>
+  </si>
+  <si>
+    <t>to compare the cameras</t>
+  </si>
+  <si>
+    <t>user should have compare table</t>
+  </si>
+  <si>
+    <t>redmi8, Realme3 pro</t>
+  </si>
+  <si>
+    <t>its should compare the given mobiles</t>
+  </si>
+  <si>
+    <t>To fight with the two products</t>
+  </si>
+  <si>
+    <t>user should have two products</t>
+  </si>
+  <si>
+    <t>boat headset,skull candy headset</t>
+  </si>
+  <si>
+    <t>its should show the rank for the 
+two products</t>
+  </si>
+  <si>
+    <t>its show the rank for the two products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To logout the account </t>
+  </si>
+  <si>
+    <t>its logout from the particular account</t>
+  </si>
+  <si>
+    <t>its logout from the account</t>
+  </si>
+  <si>
+    <t>user should have logged in</t>
+  </si>
+  <si>
+    <t>TC_find01</t>
+  </si>
+  <si>
+    <t>TC_Filter Result</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To find specification in find criteria </t>
+  </si>
+  <si>
+    <t>user should have special specification</t>
+  </si>
+  <si>
+    <t>rear camera</t>
+  </si>
+  <si>
+    <t>it should show the specification mobile</t>
+  </si>
+  <si>
+    <t>its shows the search items</t>
+  </si>
+  <si>
+    <t>TC_price filter</t>
+  </si>
+  <si>
+    <t>to find products with minimum and maximum price values</t>
+  </si>
+  <si>
+    <t>user should have mininum and maximum price</t>
+  </si>
+  <si>
+    <t>min:5000
+max:25000</t>
+  </si>
+  <si>
+    <t>it should show the phones products under this price</t>
+  </si>
+  <si>
+    <t>its shows the products</t>
+  </si>
+  <si>
+    <t>min:5000
+max:2500</t>
+  </si>
+  <si>
+    <t>its didn't allow the user to enter the maximum 
+price below the minimum price</t>
+  </si>
+  <si>
+    <t>enter the correct amount and try</t>
+  </si>
+  <si>
+    <t>TC_Brand</t>
+  </si>
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>To fine brands for the price and the specification list</t>
+  </si>
+  <si>
+    <t>user should have specification and price limit</t>
+  </si>
+  <si>
+    <t>criteria:camera,
+price:5000-25000
+Brand:nikkon</t>
+  </si>
+  <si>
+    <t>its should show the product applying this conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its shows the product </t>
+  </si>
+  <si>
+    <t>TC_Availability</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>To check the availability of the product which applies the before condition</t>
+  </si>
+  <si>
+    <t>user should have specifictaion, price limit 
+and brand</t>
+  </si>
+  <si>
+    <t>its should show wheather it is available</t>
+  </si>
+  <si>
+    <t>its shows the avalability</t>
   </si>
 </sst>
 </file>
@@ -716,13 +1486,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -865,11 +1635,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -882,18 +1650,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,7 +1678,7 @@
   <dxfs count="25">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -910,33 +1687,23 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -950,29 +1717,25 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -986,13 +1749,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1005,12 +1768,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1024,13 +1781,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1043,12 +1800,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1062,13 +1813,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1081,12 +1832,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1100,13 +1845,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1119,12 +1864,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1138,13 +1877,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1157,12 +1896,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1176,13 +1909,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1195,12 +1928,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1214,13 +1941,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1233,12 +1960,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1252,12 +1973,33 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1271,12 +2013,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1290,17 +2026,60 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1316,10 +2095,135 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1327,40 +2231,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1386,165 +2256,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1560,33 +2271,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{188AAB24-E79A-49B3-90CD-CA91C95C9A23}" name="Table1" displayName="Table1" ref="C6:G17" headerRowDxfId="15" totalsRowDxfId="14" headerRowBorderDxfId="21" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{188AAB24-E79A-49B3-90CD-CA91C95C9A23}" name="Table1" displayName="Table1" ref="C6:G17" headerRowDxfId="24" totalsRowDxfId="21" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="C6:G17" xr:uid="{188AAB24-E79A-49B3-90CD-CA91C95C9A23}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EB10B6E6-6954-42B0-A763-77B9F24D1465}" name="Version" totalsRowLabel="Total" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{FD00D273-BACB-4033-8D6B-F62A19F4FA5F}" name="Date" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0C4801D1-67D6-49FC-8589-79CD04186096}" name="Prepared By " dataDxfId="18" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{B0C55B0B-619A-4F6E-98D7-AC0ABA475060}" name="Comments" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{B37E09E2-B7F7-4690-B4CD-BC713ADC261E}" name="Testing type" totalsRowFunction="count" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{0C4801D1-67D6-49FC-8589-79CD04186096}" name="Prepared By " dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{B0C55B0B-619A-4F6E-98D7-AC0ABA475060}" name="Comments" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{B37E09E2-B7F7-4690-B4CD-BC713ADC261E}" name="Testing type" totalsRowFunction="count" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B238554A-1955-470F-AEB4-82FA869965F8}" name="Table2" displayName="Table2" ref="A1:J31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="24" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:J31" xr:uid="{B238554A-1955-470F-AEB4-82FA869965F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B238554A-1955-470F-AEB4-82FA869965F8}" name="Table2" displayName="Table2" ref="A1:J72" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J72" xr:uid="{B238554A-1955-470F-AEB4-82FA869965F8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BD1C9C4C-A0CB-4C9A-BEA2-0E520A191E7F}" name="Sl.No" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{76B225B4-FA3F-4E59-84CA-AD0FC925357F}" name="Test Case ID" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{20FED797-D38A-4283-995E-43A10DB33395}" name="Feature" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{578F8FCC-6326-47F9-963D-96232E16E923}" name="Objective" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{8029F4A9-D207-4E17-AB25-296D758ECEE4}" name="Pre Condition" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{B3B63807-DA3C-4201-89A3-26FB0E124C21}" name="Test Data" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{35689563-5075-46E6-B1EF-14212240642D}" name="Expected Result" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{1F7F43A1-B041-452B-9E7F-9D9FD2E2D72B}" name="Actual Result" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{437B815B-F2C6-475E-ADA8-F3D884A3A1C3}" name="Status" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{091AAB53-757D-4BEA-949B-7E01450E0E3E}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BD1C9C4C-A0CB-4C9A-BEA2-0E520A191E7F}" name="Sl.No" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{76B225B4-FA3F-4E59-84CA-AD0FC925357F}" name="Test Case ID" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{20FED797-D38A-4283-995E-43A10DB33395}" name="Feature" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{578F8FCC-6326-47F9-963D-96232E16E923}" name="Objective" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8029F4A9-D207-4E17-AB25-296D758ECEE4}" name="Pre Condition" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B3B63807-DA3C-4201-89A3-26FB0E124C21}" name="Test Data" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{35689563-5075-46E6-B1EF-14212240642D}" name="Expected Result" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{1F7F43A1-B041-452B-9E7F-9D9FD2E2D72B}" name="Actual Result" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{437B815B-F2C6-475E-ADA8-F3D884A3A1C3}" name="Status" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{091AAB53-757D-4BEA-949B-7E01450E0E3E}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1905,207 +2616,207 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>195</v>
+      <c r="G6" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>202</v>
+        <v>161</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>202</v>
+        <v>163</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>1.2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>202</v>
+        <v>164</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>1.3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>203</v>
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>1.4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>202</v>
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>1.5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>203</v>
+        <v>168</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>1.6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>203</v>
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>1.7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>202</v>
+        <v>99</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>1.8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>202</v>
+        <v>130</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>1.9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>203</v>
+        <v>153</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>202</v>
+      <c r="D17" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2119,968 +2830,2204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FD8726-149E-4A0C-B29E-5D9EA276DA49}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="19"/>
+    <col min="2" max="2" width="26.5546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="55.21875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="48" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+    <row r="2" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="B15" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="B16" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="B17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>21</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>22</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>23</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>125</v>
+      <c r="B25" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>211</v>
+        <v>289</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+        <v>293</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>155</v>
+      <c r="B26" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>157</v>
+        <v>300</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+        <v>303</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>162</v>
+      <c r="B27" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>164</v>
+        <v>305</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+        <v>307</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>168</v>
+      <c r="B28" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>170</v>
+        <v>311</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+        <v>314</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>168</v>
+      <c r="B29" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>177</v>
+        <v>316</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+        <v>318</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>182</v>
+      <c r="B30" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>184</v>
+        <v>280</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="E45" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="I30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="19" t="s">
+      <c r="E46" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <v>30</v>
-      </c>
-      <c r="B31" s="22" t="s">
+      <c r="E47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="E48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="15">
+        <v>54</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="E57" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E58" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22" t="s">
+      <c r="E61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="E62" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="15">
+        <v>64</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>194</v>
-      </c>
+      <c r="E65" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A67" s="15">
+        <v>66</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="15">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A69" s="15">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="15">
+        <v>69</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+      <c r="A71" s="21">
+        <v>70</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3090,4 +5037,312 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97228F61-66EF-463E-86CC-A252370A6203}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="58.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>